--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8defdd50762089b/UNI/OD-UNI_Sommersemester2023/BachelorThesis/automaticHintGeneration/automaticHintGeneration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexOKRE\BachelorThesis\optimizationOfHintGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_AD4DB114E441178AC67DF48C0E97C61C693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFE58893-8095-4155-A55A-B4695DE8C234}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2703B41-1F99-4042-8A14-8C6EA018B333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>In which year was the Euro as payment method introduced?</t>
+  </si>
+  <si>
+    <t>Who is the president of the USA?</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>When did Miachel Schumacher win his first F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>Max Verstappen</t>
+  </si>
+  <si>
+    <t>Who was the F1 World Champion in 2022?</t>
   </si>
 </sst>
 </file>
@@ -107,10 +125,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,15 +390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,6 +446,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1994</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexOKRE\BachelorThesis\optimizationOfHintGeneration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexOKRE\BachelorThesis\TestBranch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2703B41-1F99-4042-8A14-8C6EA018B333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE19DB4A-540E-424B-B05F-12EC528972A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Question</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>General Franco became leader of which country in 1939 after a Civil War?</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -57,12 +51,6 @@
     <t>In which year was the Euro as payment method introduced?</t>
   </si>
   <si>
-    <t>Who is the president of the USA?</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
@@ -73,6 +61,30 @@
   </si>
   <si>
     <t>Who was the F1 World Champion in 2022?</t>
+  </si>
+  <si>
+    <t>When did Miachel Schumacher win his 2nd F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>When did Miachel Schumacher win his 3rd F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>When did Miachel Schumacher win his 4th F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>When did Miachel Schumacher win his 5th F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>When did Miachel Schumacher win his 6th F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>When did Miachel Schumacher win his 7th F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>When has Chelsea last won the Champions League?</t>
+  </si>
+  <si>
+    <t>When was the World Cup last won by Italy?</t>
   </si>
 </sst>
 </file>
@@ -390,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,24 +427,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,43 +452,109 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1999</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>2004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>2006</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexOKRE\BachelorThesis\TestBranch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8defdd50762089b/UNI/OD-UNI_Sommersemester2023/BachelorThesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE19DB4A-540E-424B-B05F-12EC528972A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4A87FC-2C31-40D3-88A1-05013899722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>In which year was the Euro as payment method introduced?</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
@@ -63,28 +60,34 @@
     <t>Who was the F1 World Champion in 2022?</t>
   </si>
   <si>
-    <t>When did Miachel Schumacher win his 2nd F1 World Drivers Title?</t>
-  </si>
-  <si>
     <t>When did Miachel Schumacher win his 3rd F1 World Drivers Title?</t>
   </si>
   <si>
-    <t>When did Miachel Schumacher win his 4th F1 World Drivers Title?</t>
-  </si>
-  <si>
-    <t>When did Miachel Schumacher win his 5th F1 World Drivers Title?</t>
-  </si>
-  <si>
-    <t>When did Miachel Schumacher win his 6th F1 World Drivers Title?</t>
-  </si>
-  <si>
-    <t>When did Miachel Schumacher win his 7th F1 World Drivers Title?</t>
-  </si>
-  <si>
     <t>When has Chelsea last won the Champions League?</t>
   </si>
   <si>
-    <t>When was the World Cup last won by Italy?</t>
+    <t xml:space="preserve">Who is the mayor of Innsbruck? </t>
+  </si>
+  <si>
+    <t>Georg Willi</t>
+  </si>
+  <si>
+    <t>Who founded Facebook?</t>
+  </si>
+  <si>
+    <t>Marc Zuckerberg</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>In wich country is Barcelona located?</t>
+  </si>
+  <si>
+    <t>Where do most people speak italian?</t>
+  </si>
+  <si>
+    <t>Italy</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,65 +441,65 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1994</v>
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1995</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -504,10 +507,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -515,45 +518,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>2003</v>
+        <v>2021</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>2004</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>2006</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>2021</v>
-      </c>
-      <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8defdd50762089b/UNI/OD-UNI_Sommersemester2023/BachelorThesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4A87FC-2C31-40D3-88A1-05013899722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA5AB7-22B8-47B9-8164-FCFBE9C142BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -64,18 +64,6 @@
   </si>
   <si>
     <t>When has Chelsea last won the Champions League?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who is the mayor of Innsbruck? </t>
-  </si>
-  <si>
-    <t>Georg Willi</t>
-  </si>
-  <si>
-    <t>Who founded Facebook?</t>
-  </si>
-  <si>
-    <t>Marc Zuckerberg</t>
   </si>
   <si>
     <t>Spain</t>
@@ -405,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,10 +429,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -452,10 +440,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -474,56 +462,34 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1994</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1994</v>
+        <v>2021</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2021</v>
-      </c>
-      <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA5AB7-22B8-47B9-8164-FCFBE9C142BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C4C328-DBB5-446E-BE3E-0B9DE6DAFA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -36,46 +36,25 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Innsbruck is a city in wich european country?</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
-    <t>When did Miachel Schumacher win his first F1 World Drivers Title?</t>
-  </si>
-  <si>
     <t>Max Verstappen</t>
   </si>
   <si>
     <t>Who was the F1 World Champion in 2022?</t>
   </si>
   <si>
-    <t>When did Miachel Schumacher win his 3rd F1 World Drivers Title?</t>
-  </si>
-  <si>
-    <t>When has Chelsea last won the Champions League?</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>In wich country is Barcelona located?</t>
-  </si>
-  <si>
-    <t>Where do most people speak italian?</t>
-  </si>
-  <si>
-    <t>Italy</t>
+    <t>Who is the artist behind the song Thriller?</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Who is the current president of the US?</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
   </si>
 </sst>
 </file>
@@ -393,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -418,10 +397,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -429,10 +408,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -440,57 +419,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1994</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>2021</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8defdd50762089b/UNI/OD-UNI_Sommersemester2023/BachelorThesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4A87FC-2C31-40D3-88A1-05013899722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C4C328-DBB5-446E-BE3E-0B9DE6DAFA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -36,58 +36,25 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Innsbruck is a city in wich european country?</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
-    <t>When did Miachel Schumacher win his first F1 World Drivers Title?</t>
-  </si>
-  <si>
     <t>Max Verstappen</t>
   </si>
   <si>
     <t>Who was the F1 World Champion in 2022?</t>
   </si>
   <si>
-    <t>When did Miachel Schumacher win his 3rd F1 World Drivers Title?</t>
-  </si>
-  <si>
-    <t>When has Chelsea last won the Champions League?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Who is the mayor of Innsbruck? </t>
-  </si>
-  <si>
-    <t>Georg Willi</t>
-  </si>
-  <si>
-    <t>Who founded Facebook?</t>
-  </si>
-  <si>
-    <t>Marc Zuckerberg</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>In wich country is Barcelona located?</t>
-  </si>
-  <si>
-    <t>Where do most people speak italian?</t>
-  </si>
-  <si>
-    <t>Italy</t>
+    <t>Who is the artist behind the song Thriller?</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Who is the current president of the US?</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
   </si>
 </sst>
 </file>
@@ -405,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -430,10 +397,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -441,10 +408,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -452,79 +419,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1994</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2021</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C4C328-DBB5-446E-BE3E-0B9DE6DAFA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D425A5E-9AF5-45CF-ADA5-0EC236D5781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -49,12 +49,6 @@
   </si>
   <si>
     <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>Who is the current president of the US?</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
   </si>
 </sst>
 </file>
@@ -372,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,17 +411,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D425A5E-9AF5-45CF-ADA5-0EC236D5781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65D3991-4F03-47A7-A4AE-BAD0A9F4CF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+  </si>
+  <si>
+    <t>Who is the best football player?</t>
+  </si>
+  <si>
+    <t>Who is CEO of SpaceX?</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Who is most famous for inventing the theory of relativity?</t>
   </si>
 </sst>
 </file>
@@ -366,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,6 +429,39 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65D3991-4F03-47A7-A4AE-BAD0A9F4CF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A93817-7589-4A40-A682-24D6833EF34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Question</t>
   </si>
@@ -39,34 +39,10 @@
     <t>Person</t>
   </si>
   <si>
-    <t>Max Verstappen</t>
-  </si>
-  <si>
-    <t>Who was the F1 World Champion in 2022?</t>
-  </si>
-  <si>
-    <t>Who is the artist behind the song Thriller?</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
+    <t>Who is CEO of SpaceX?</t>
   </si>
   <si>
     <t>Elon Musk</t>
-  </si>
-  <si>
-    <t>Lionel Messi</t>
-  </si>
-  <si>
-    <t>Who is the best football player?</t>
-  </si>
-  <si>
-    <t>Who is CEO of SpaceX?</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Who is most famous for inventing the theory of relativity?</t>
   </si>
 </sst>
 </file>
@@ -384,16 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -409,60 +385,17 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Walcher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A93817-7589-4A40-A682-24D6833EF34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB0E4E-E03B-418D-A946-1689275371F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -36,13 +36,28 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Innsbruck is a city in wich european country?</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Person</t>
   </si>
   <si>
-    <t>Who is CEO of SpaceX?</t>
-  </si>
-  <si>
-    <t>Elon Musk</t>
+    <t>When did Miachel Schumacher win his first F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>Max Verstappen</t>
+  </si>
+  <si>
+    <t>Who was the F1 World Champion in 2022?</t>
   </si>
 </sst>
 </file>
@@ -360,19 +375,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -392,10 +407,31 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1994</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Walcher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB0E4E-E03B-418D-A946-1689275371F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFCA8AF-FCF2-4C65-B92B-63798A7129B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>Person</t>
   </si>
   <si>
-    <t>When did Miachel Schumacher win his first F1 World Drivers Title?</t>
-  </si>
-  <si>
     <t>Max Verstappen</t>
   </si>
   <si>
     <t>Who was the F1 World Champion in 2022?</t>
+  </si>
+  <si>
+    <t>When did Michael Schumacher win his first F1 World Drivers Title?</t>
   </si>
 </sst>
 </file>
@@ -378,16 +378,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -409,9 +409,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1994</v>
@@ -420,12 +420,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>

--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C4C328-DBB5-446E-BE3E-0B9DE6DAFA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F21EBC-EB52-49E0-A832-53CF560372ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -36,25 +36,46 @@
     <t>Category</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Innsbruck is a city in wich european country?</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>Person</t>
   </si>
   <si>
+    <t>When did Michael Schumacher win his first F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>What is the capital of Tyrol?</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>When did Michael Schumacher win his last F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>Who hosts The Grand Tour?</t>
+  </si>
+  <si>
+    <t>Richard Hammond</t>
+  </si>
+  <si>
     <t>Max Verstappen</t>
   </si>
   <si>
-    <t>Who was the F1 World Champion in 2022?</t>
-  </si>
-  <si>
-    <t>Who is the artist behind the song Thriller?</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>Who is the current president of the US?</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
+    <t>Who was 2022 F1 World Drivers champion?</t>
+  </si>
+  <si>
+    <t>Jeremy Clarkson</t>
   </si>
 </sst>
 </file>
@@ -372,16 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -397,10 +418,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -408,10 +429,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -421,14 +442,59 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>1994</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFCA8AF-FCF2-4C65-B92B-63798A7129B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F21EBC-EB52-49E0-A832-53CF560372ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -51,13 +51,31 @@
     <t>Person</t>
   </si>
   <si>
+    <t>When did Michael Schumacher win his first F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>What is the capital of Tyrol?</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>When did Michael Schumacher win his last F1 World Drivers Title?</t>
+  </si>
+  <si>
+    <t>Who hosts The Grand Tour?</t>
+  </si>
+  <si>
+    <t>Richard Hammond</t>
+  </si>
+  <si>
     <t>Max Verstappen</t>
   </si>
   <si>
-    <t>Who was the F1 World Champion in 2022?</t>
-  </si>
-  <si>
-    <t>When did Michael Schumacher win his first F1 World Drivers Title?</t>
+    <t>Who was 2022 F1 World Drivers champion?</t>
+  </si>
+  <si>
+    <t>Jeremy Clarkson</t>
   </si>
 </sst>
 </file>
@@ -375,16 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -411,27 +429,72 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>1994</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="B4">
+        <v>1994</v>
+      </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testSet.xlsx
+++ b/testSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien von Alex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F21EBC-EB52-49E0-A832-53CF560372ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18717450-970C-43D7-9721-D7F59A6ED821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="3825" windowWidth="12150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -54,28 +54,10 @@
     <t>When did Michael Schumacher win his first F1 World Drivers Title?</t>
   </si>
   <si>
-    <t>What is the capital of Tyrol?</t>
-  </si>
-  <si>
-    <t>Innsbruck</t>
-  </si>
-  <si>
-    <t>When did Michael Schumacher win his last F1 World Drivers Title?</t>
-  </si>
-  <si>
-    <t>Who hosts The Grand Tour?</t>
-  </si>
-  <si>
-    <t>Richard Hammond</t>
-  </si>
-  <si>
     <t>Max Verstappen</t>
   </si>
   <si>
     <t>Who was 2022 F1 World Drivers champion?</t>
-  </si>
-  <si>
-    <t>Jeremy Clarkson</t>
   </si>
 </sst>
 </file>
@@ -393,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,67 +411,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1994</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1994</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
